--- a/CapStatement/Argonaut_Capability_Statement_CLIENT_Clinical_Notes.xlsx
+++ b/CapStatement/Argonaut_Capability_Statement_CLIENT_Clinical_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/CapStatement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BF467E-211B-4143-A62A-97F9AD6AF7F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029B9285-23CE-3747-B57D-612C05B3A687}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="5" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="91">
   <si>
     <t>Value</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>patient,category,code</t>
+  </si>
+  <si>
+    <t>- The search parameters `created`, `class`, and `type`  MAY NOT be available as a *single* search parameter but SHALL be available in the combinations listed below.</t>
+  </si>
+  <si>
+    <t>- The search parameters `date`, `category`, and  `code`  MAY NOT be available as a *single* search parameter but SHALL be available in the combinations listed below.</t>
   </si>
 </sst>
 </file>
@@ -846,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -859,6 +865,7 @@
     <col min="5" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -890,26 +897,30 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="I2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="I3" t="s">
         <v>83</v>
       </c>
@@ -1083,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/CapStatement/Argonaut_Capability_Statement_CLIENT_Clinical_Notes.xlsx
+++ b/CapStatement/Argonaut_Capability_Statement_CLIENT_Clinical_Notes.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/CapStatement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029B9285-23CE-3747-B57D-612C05B3A687}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A42DBD-4EA5-464A-BF4A-69ABDDBCD964}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
     <sheet name="profiles" sheetId="2" r:id="rId2"/>
     <sheet name="resources" sheetId="3" r:id="rId3"/>
     <sheet name="ops" sheetId="7" r:id="rId4"/>
-    <sheet name="interactions" sheetId="5" r:id="rId5"/>
-    <sheet name="sps" sheetId="4" r:id="rId6"/>
+    <sheet name="igs" sheetId="8" r:id="rId5"/>
+    <sheet name="interactions" sheetId="5" r:id="rId6"/>
+    <sheet name="sps" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="94">
   <si>
     <t>Value</t>
   </si>
@@ -221,9 +222,6 @@
   </si>
   <si>
     <t>conf_DocumentReference</t>
-  </si>
-  <si>
-    <t>http://fhir.org/guides/argonaut-clinicalnotes/ImplementationGuide/ig</t>
   </si>
   <si>
     <t>Argonaut Diagnostic Report Profile for Report and Note exchange </t>
@@ -309,24 +307,28 @@
   </si>
   <si>
     <t>- The search parameters `date`, `category`, and  `code`  MAY NOT be available as a *single* search parameter but SHALL be available in the combinations listed below.</t>
+  </si>
+  <si>
+    <t>http://fhir.org/guides/argonaut-clinicalnotes/ImplementationGuide/argonaut.us.clinicalnotes-1.0.0</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/R4/valueset-operation-expand.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -376,9 +378,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -388,14 +389,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -711,16 +711,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -728,47 +728,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -777,9 +777,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{F4E5E31C-2B38-4CFF-AC2F-20C524F5A5E3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -792,15 +789,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.5" customWidth="1"/>
-    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="98.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -814,12 +811,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -828,18 +825,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -852,23 +849,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -894,10 +891,10 @@
         <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -905,29 +902,29 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -944,18 +941,19 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -968,19 +966,25 @@
       <c r="D1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -990,6 +994,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775A0DE-BE4D-4E3D-9289-FE63E3EAE9F8}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2E280-092F-4777-8984-8212A8DAB750}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -997,15 +1024,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1013,13 +1040,13 @@
         <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1030,12 +1057,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1049,22 +1076,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1075,12 +1102,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1090,7 +1117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
@@ -1098,21 +1125,21 @@
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1162,12 +1189,12 @@
         <v>25</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1188,7 +1215,7 @@
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
@@ -1215,7 +1242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1238,7 +1265,7 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
@@ -1265,7 +1292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1273,7 +1300,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1316,10 +1343,10 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1327,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -1373,7 +1400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1424,10 +1451,10 @@
         <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1478,12 +1505,12 @@
         <v>30</v>
       </c>
       <c r="Q7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1532,15 +1559,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1549,7 +1576,7 @@
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
@@ -1586,9 +1613,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1603,7 +1630,7 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
         <v>28</v>
@@ -1640,9 +1667,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1657,7 +1684,7 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -1691,12 +1718,12 @@
         <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1711,7 +1738,7 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -1745,7 +1772,7 @@
         <v>30</v>
       </c>
       <c r="Q12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
